--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_67__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_67__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,217 +5873,217 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>0.4417386054992676</c:v>
+                  <c:v>0.4417429566383362</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.82721138000488</c:v>
+                  <c:v>12.82720279693604</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.02853679656982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.020547389984131</c:v>
+                  <c:v>5.020561218261719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.79822158813477</c:v>
+                  <c:v>42.7982292175293</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.6405668258667</c:v>
+                  <c:v>15.64057159423828</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>32.7872314453125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.812244892120361</c:v>
+                  <c:v>6.812240123748779</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.924508094787598</c:v>
+                  <c:v>8.924511909484863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.13415789604187</c:v>
+                  <c:v>-3.134150505065918</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.94564819335938</c:v>
+                  <c:v>29.94565010070801</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.5415835976600647</c:v>
+                  <c:v>-0.5415830016136169</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.62501907348633</c:v>
+                  <c:v>26.62501525878906</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>11.13071632385254</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.616300106048584</c:v>
+                  <c:v>6.616307258605957</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.67744255065918</c:v>
+                  <c:v>29.67742919921875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.05629539489746</c:v>
+                  <c:v>24.05628204345703</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.65616607666016</c:v>
+                  <c:v>17.65616035461426</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.63656997680664</c:v>
+                  <c:v>10.63656902313232</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.83914947509766</c:v>
+                  <c:v>18.83915901184082</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.64272499084473</c:v>
+                  <c:v>27.64272117614746</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.51730918884277</c:v>
+                  <c:v>10.51730442047119</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16.02071952819824</c:v>
+                  <c:v>16.02072334289551</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.18911743164062</c:v>
+                  <c:v>27.18910789489746</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.708263635635376</c:v>
+                  <c:v>2.708268165588379</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.691231727600098</c:v>
+                  <c:v>9.69123363494873</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.49787521362305</c:v>
+                  <c:v>18.49786376953125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14.80884742736816</c:v>
+                  <c:v>14.80883884429932</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21.77054977416992</c:v>
+                  <c:v>21.77054023742676</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>18.07590103149414</c:v>
+                  <c:v>18.07591247558594</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.68347549438477</c:v>
+                  <c:v>22.6834716796875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.648867130279541</c:v>
+                  <c:v>6.648871898651123</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19.56280899047852</c:v>
+                  <c:v>19.56281089782715</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.06270217895508</c:v>
+                  <c:v>10.0626974105835</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.63623046875</c:v>
+                  <c:v>8.636240005493164</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32.69801330566406</c:v>
+                  <c:v>32.6980094909668</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.666090965270996</c:v>
+                  <c:v>6.666095733642578</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.009902119636536</c:v>
+                  <c:v>1.00989294052124</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.793395042419434</c:v>
+                  <c:v>9.793396949768066</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15.61978244781494</c:v>
+                  <c:v>15.61979103088379</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.63084030151367</c:v>
+                  <c:v>24.63084411621094</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28.50492858886719</c:v>
+                  <c:v>28.50492668151855</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-3.72980809211731</c:v>
+                  <c:v>-3.729803323745728</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>19.02280235290527</c:v>
+                  <c:v>19.02278327941895</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>25.0612907409668</c:v>
+                  <c:v>25.06129455566406</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>13.28463649749756</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13.36508274078369</c:v>
+                  <c:v>13.36509418487549</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14.66574478149414</c:v>
+                  <c:v>14.66574001312256</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18.92936325073242</c:v>
+                  <c:v>18.92935371398926</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>17.68929290771484</c:v>
+                  <c:v>17.68929672241211</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10.36161136627197</c:v>
+                  <c:v>10.36160564422607</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14.50878810882568</c:v>
+                  <c:v>14.50879096984863</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>24.56861114501953</c:v>
+                  <c:v>24.5686149597168</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>13.88662052154541</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20.4808349609375</c:v>
+                  <c:v>20.48082542419434</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.59189414978027</c:v>
+                  <c:v>18.59188461303711</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.971561908721924</c:v>
+                  <c:v>5.971557140350342</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14.55331611633301</c:v>
+                  <c:v>14.55332088470459</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.022687673568726</c:v>
+                  <c:v>3.022695779800415</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>19.23625946044922</c:v>
+                  <c:v>19.23626708984375</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>23.72616767883301</c:v>
+                  <c:v>23.72616004943848</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>11.21409702301025</c:v>
+                  <c:v>11.21410274505615</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>31.21148300170898</c:v>
+                  <c:v>31.21148681640625</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>18.70620155334473</c:v>
+                  <c:v>18.70619583129883</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.558758735656738</c:v>
+                  <c:v>9.558754920959473</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>15.87880325317383</c:v>
+                  <c:v>15.8788013458252</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12.72797107696533</c:v>
+                  <c:v>12.7279577255249</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>15.19685649871826</c:v>
+                  <c:v>15.19685173034668</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.004481315612793</c:v>
+                  <c:v>8.004486083984375</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>12.01176834106445</c:v>
+                  <c:v>12.01176357269287</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18.52860450744629</c:v>
+                  <c:v>18.52860832214355</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>30.8116569519043</c:v>
@@ -6092,34 +6092,34 @@
                   <c:v>15.32448673248291</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.564698696136475</c:v>
+                  <c:v>7.564696311950684</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>19.39881896972656</c:v>
+                  <c:v>19.3988208770752</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>18.38595771789551</c:v>
+                  <c:v>18.38595962524414</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.30327033996582</c:v>
+                  <c:v>8.30327320098877</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-2.159904956817627</c:v>
+                  <c:v>-2.159907341003418</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>21.3697566986084</c:v>
+                  <c:v>21.3697452545166</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>-6.170079231262207</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>14.38168716430664</c:v>
+                  <c:v>14.38168048858643</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>17.73001861572266</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>17.70512008666992</c:v>
+                  <c:v>17.70511817932129</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>22.85273933410645</c:v>
@@ -6131,40 +6131,40 @@
                   <c:v>-2.456676959991455</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.206506967544556</c:v>
+                  <c:v>3.206507444381714</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>30.14626121520996</c:v>
+                  <c:v>30.14625549316406</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.44578552246094</c:v>
+                  <c:v>13.44579219818115</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.631089687347412</c:v>
+                  <c:v>5.63108491897583</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>17.0835018157959</c:v>
+                  <c:v>17.08349990844727</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.040737152099609</c:v>
+                  <c:v>8.040733337402344</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.36274433135986</c:v>
+                  <c:v>14.36274719238281</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>12.40126037597656</c:v>
+                  <c:v>12.40125751495361</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-2.291167974472046</c:v>
+                  <c:v>-2.291162014007568</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>23.29251289367676</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>14.80063247680664</c:v>
+                  <c:v>14.80062580108643</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>28.27182769775391</c:v>
+                  <c:v>28.27182960510254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4417386054992676</v>
+        <v>0.4417429566383362</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>12.82721138000488</v>
+        <v>12.82720279693604</v>
       </c>
       <c r="G3">
         <v>83</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.020547389984131</v>
+        <v>5.020561218261719</v>
       </c>
       <c r="G5">
         <v>83</v>
@@ -6987,7 +6987,7 @@
         <v>47.7145</v>
       </c>
       <c r="F6">
-        <v>42.79822158813477</v>
+        <v>42.7982292175293</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.6405668258667</v>
+        <v>15.64057159423828</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>6.812244892120361</v>
+        <v>6.812240123748779</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>8.924508094787598</v>
+        <v>8.924511909484863</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-3.13415789604187</v>
+        <v>-3.134150505065918</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.94564819335938</v>
+        <v>29.94565010070801</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>-0.5415835976600647</v>
+        <v>-0.5415830016136169</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.62501907348633</v>
+        <v>26.62501525878906</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>6.616300106048584</v>
+        <v>6.616307258605957</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>29.67744255065918</v>
+        <v>29.67742919921875</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.05629539489746</v>
+        <v>24.05628204345703</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>17.65616607666016</v>
+        <v>17.65616035461426</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>10.63656997680664</v>
+        <v>10.63656902313232</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.83914947509766</v>
+        <v>18.83915901184082</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.64272499084473</v>
+        <v>27.64272117614746</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>10.51730918884277</v>
+        <v>10.51730442047119</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>16.02071952819824</v>
+        <v>16.02072334289551</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.18911743164062</v>
+        <v>27.18910789489746</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.708263635635376</v>
+        <v>2.708268165588379</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>9.691231727600098</v>
+        <v>9.69123363494873</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>18.49787521362305</v>
+        <v>18.49786376953125</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>14.80884742736816</v>
+        <v>14.80883884429932</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>21.77054977416992</v>
+        <v>21.77054023742676</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>18.07590103149414</v>
+        <v>18.07591247558594</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>22.68347549438477</v>
+        <v>22.6834716796875</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>6.648867130279541</v>
+        <v>6.648871898651123</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>19.56280899047852</v>
+        <v>19.56281089782715</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>10.06270217895508</v>
+        <v>10.0626974105835</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>8.63623046875</v>
+        <v>8.636240005493164</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>32.69801330566406</v>
+        <v>32.6980094909668</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>6.666090965270996</v>
+        <v>6.666095733642578</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.009902119636536</v>
+        <v>1.00989294052124</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>9.793395042419434</v>
+        <v>9.793396949768066</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>15.61978244781494</v>
+        <v>15.61979103088379</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>24.63084030151367</v>
+        <v>24.63084411621094</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>28.50492858886719</v>
+        <v>28.50492668151855</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-3.72980809211731</v>
+        <v>-3.729803323745728</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>19.02280235290527</v>
+        <v>19.02278327941895</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>25.0612907409668</v>
+        <v>25.06129455566406</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>13.36508274078369</v>
+        <v>13.36509418487549</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>14.66574478149414</v>
+        <v>14.66574001312256</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>18.92936325073242</v>
+        <v>18.92935371398926</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>17.68929290771484</v>
+        <v>17.68929672241211</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>10.36161136627197</v>
+        <v>10.36160564422607</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>14.50878810882568</v>
+        <v>14.50879096984863</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>24.56861114501953</v>
+        <v>24.5686149597168</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>20.4808349609375</v>
+        <v>20.48082542419434</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>18.59189414978027</v>
+        <v>18.59188461303711</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>5.971561908721924</v>
+        <v>5.971557140350342</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>14.55331611633301</v>
+        <v>14.55332088470459</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>3.022687673568726</v>
+        <v>3.022695779800415</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>19.23625946044922</v>
+        <v>19.23626708984375</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>23.72616767883301</v>
+        <v>23.72616004943848</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>11.21409702301025</v>
+        <v>11.21410274505615</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>31.21148300170898</v>
+        <v>31.21148681640625</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>18.70620155334473</v>
+        <v>18.70619583129883</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>9.558758735656738</v>
+        <v>9.558754920959473</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>15.87880325317383</v>
+        <v>15.8788013458252</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>12.72797107696533</v>
+        <v>12.7279577255249</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>15.19685649871826</v>
+        <v>15.19685173034668</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>8.004481315612793</v>
+        <v>8.004486083984375</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>12.01176834106445</v>
+        <v>12.01176357269287</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>18.52860450744629</v>
+        <v>18.52860832214355</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>7.564698696136475</v>
+        <v>7.564696311950684</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>19.39881896972656</v>
+        <v>19.3988208770752</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>18.38595771789551</v>
+        <v>18.38595962524414</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>8.30327033996582</v>
+        <v>8.30327320098877</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-2.159904956817627</v>
+        <v>-2.159907341003418</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>21.3697566986084</v>
+        <v>21.3697452545166</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>14.38168716430664</v>
+        <v>14.38168048858643</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>17.70512008666992</v>
+        <v>17.70511817932129</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>3.206506967544556</v>
+        <v>3.206507444381714</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>30.14626121520996</v>
+        <v>30.14625549316406</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>13.44578552246094</v>
+        <v>13.44579219818115</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>5.631089687347412</v>
+        <v>5.63108491897583</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>17.0835018157959</v>
+        <v>17.08349990844727</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>8.040737152099609</v>
+        <v>8.040733337402344</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>14.36274433135986</v>
+        <v>14.36274719238281</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>12.40126037597656</v>
+        <v>12.40125751495361</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>-2.291167974472046</v>
+        <v>-2.291162014007568</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>14.80063247680664</v>
+        <v>14.80062580108643</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>28.27182769775391</v>
+        <v>28.27182960510254</v>
       </c>
     </row>
     <row r="100" spans="1:6">
